--- a/biology/Histoire de la zoologie et de la botanique/Nikita_Kokouïev/Nikita_Kokouïev.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Nikita_Kokouïev/Nikita_Kokouïev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nikita_Kokou%C3%AFev</t>
+          <t>Nikita_Kokouïev</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nikita Rafaïlovitch Kokouïev (Никита Рафаилович Кокуев), né le 28 octobre 1848 à Maloarkhangelsk et mort le 31 mars 1914, est un entomologiste russe qui fut l'un des fondateurs de la Revue russe d'entomologie et son premier rédacteur en chef.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nikita_Kokou%C3%AFev</t>
+          <t>Nikita_Kokouïev</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît dans une famille de marchands fortunés à Maloarkhangelsk. Il devient membre de la Société d'histoire naturelle de Iaroslavl en 1864 et en 1894 membre effectif de la Société entomologique de Russie. Il fonde avec Andreï Semionov-Tian-Chanski, Tikhon Tchitcherine et d'autres la Revue russe d'entomologie à Iaroslavl. Elle déménage à Saint-Pétersbourg en 1906.
 Il étudie dans ses premiers travaux les coléoptères du gouvernement de Iaroslavl et fait paraître quarante-trois articles à propos de la systématique des hyménoptères (Ichneumonidae, Braconidae) dans les revues de la Société entomologique de Russie et des Annales du musée zoologique de l'Académie des sciences, y décrivant deux-cent-huit genres. Son ouvrage le plus important est un Précis des abeilles de Russie centrale paru dans les Travaux de la Société d'histoire naturelle de Iaroslavl en 1909.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nikita_Kokou%C3%AFev</t>
+          <t>Nikita_Kokouïev</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hymenoptera asiatica nova. // Русское Энтомологическое Обозрение. 3:285-288. (1903)
 Hymenoptera asiatica nova VI. // Русское Энтомологическое Обозрение. 5:10-15.(1905)
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nikita_Kokou%C3%AFev</t>
+          <t>Nikita_Kokouïev</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(ru) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en russe intitulé « Кокуев, Никита Рафаилович » (voir la liste des auteurs).
 Kokujev est l’abréviation habituelle de Nikita Kokouïev en zoologie.
